--- a/Code/Results/Cases/Case_7_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_21/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.789838512323684</v>
+        <v>2.596613226829618</v>
       </c>
       <c r="C2">
-        <v>1.016525228221269</v>
+        <v>0.6106788415487188</v>
       </c>
       <c r="D2">
-        <v>0.06142501294966962</v>
+        <v>0.1825662917294437</v>
       </c>
       <c r="E2">
-        <v>0.1271108732030655</v>
+        <v>0.1671626838473443</v>
       </c>
       <c r="F2">
-        <v>2.081217001821813</v>
+        <v>0.8947005118748166</v>
       </c>
       <c r="G2">
-        <v>0.0007919485287697464</v>
+        <v>0.000788989535570907</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2214099193563897</v>
+        <v>0.1943943018628076</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6871172002431027</v>
+        <v>0.6904304994013799</v>
       </c>
       <c r="O2">
-        <v>1.35417083668311</v>
+        <v>1.982590443879246</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.282279018999247</v>
+        <v>2.255513266589332</v>
       </c>
       <c r="C3">
-        <v>0.8775899988424669</v>
+        <v>0.5325564334100932</v>
       </c>
       <c r="D3">
-        <v>0.05467580451743004</v>
+        <v>0.1628272389172167</v>
       </c>
       <c r="E3">
-        <v>0.1130538279467075</v>
+        <v>0.1489954677274135</v>
       </c>
       <c r="F3">
-        <v>1.895310944005516</v>
+        <v>0.8273963018482107</v>
       </c>
       <c r="G3">
-        <v>0.0008003485259313323</v>
+        <v>0.0007936864532094415</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.196688903446983</v>
+        <v>0.1731200721879205</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7428082822767728</v>
+        <v>0.7067187484711752</v>
       </c>
       <c r="O3">
-        <v>1.235409777983733</v>
+        <v>1.850121114786617</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.975239553961501</v>
+        <v>2.04673417833402</v>
       </c>
       <c r="C4">
-        <v>0.7934516358893404</v>
+        <v>0.4846220427483559</v>
       </c>
       <c r="D4">
-        <v>0.05057264676498363</v>
+        <v>0.1508341542246399</v>
       </c>
       <c r="E4">
-        <v>0.1046188826558634</v>
+        <v>0.1380200213219673</v>
       </c>
       <c r="F4">
-        <v>1.786286281418072</v>
+        <v>0.7879132325495277</v>
       </c>
       <c r="G4">
-        <v>0.000805640855624015</v>
+        <v>0.0007966640343666796</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1819492365541464</v>
+        <v>0.16032484277045</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.778578509748602</v>
+        <v>0.7177531937122623</v>
       </c>
       <c r="O4">
-        <v>1.166063175670217</v>
+        <v>1.773588823770837</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.851115628771709</v>
+        <v>1.961783993274963</v>
       </c>
       <c r="C5">
-        <v>0.7594137280753728</v>
+        <v>0.4650899296098032</v>
       </c>
       <c r="D5">
-        <v>0.04890968592571454</v>
+        <v>0.1459760046326863</v>
       </c>
       <c r="E5">
-        <v>0.1012256316873561</v>
+        <v>0.1335886635331747</v>
       </c>
       <c r="F5">
-        <v>1.743023438044816</v>
+        <v>0.7722555930372295</v>
       </c>
       <c r="G5">
-        <v>0.0008078330609482474</v>
+        <v>0.0007979014754348149</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1760412213319427</v>
+        <v>0.1551720599264286</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.793533825765623</v>
+        <v>0.7225008530999233</v>
       </c>
       <c r="O5">
-        <v>1.138616892443721</v>
+        <v>1.743529456353087</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.830560734363189</v>
+        <v>1.947684850623148</v>
       </c>
       <c r="C6">
-        <v>0.7537755765756629</v>
+        <v>0.4618465409958503</v>
       </c>
       <c r="D6">
-        <v>0.04863407045310453</v>
+        <v>0.1451709946693995</v>
       </c>
       <c r="E6">
-        <v>0.1006647004835806</v>
+        <v>0.1328552212213445</v>
       </c>
       <c r="F6">
-        <v>1.735906688986788</v>
+        <v>0.7696808694301325</v>
       </c>
       <c r="G6">
-        <v>0.000808199267624634</v>
+        <v>0.0007981084186064466</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1750658212877099</v>
+        <v>0.1543199874259358</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7960395299491179</v>
+        <v>0.7233041118670229</v>
       </c>
       <c r="O6">
-        <v>1.134106199751869</v>
+        <v>1.738604005673977</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.973561740211835</v>
+        <v>2.04558803458599</v>
       </c>
       <c r="C7">
-        <v>0.7929916361031815</v>
+        <v>0.4843586282219405</v>
       </c>
       <c r="D7">
-        <v>0.0505501840831144</v>
+        <v>0.1507685210906544</v>
       </c>
       <c r="E7">
-        <v>0.1045729483307198</v>
+        <v>0.137960096500958</v>
       </c>
       <c r="F7">
-        <v>1.785698258513122</v>
+        <v>0.7877003587831126</v>
       </c>
       <c r="G7">
-        <v>0.0008056702744651549</v>
+        <v>0.0007966806248690385</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1818691750945405</v>
+        <v>0.1602551094766511</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7787786912897836</v>
+        <v>0.7178162171646676</v>
       </c>
       <c r="O7">
-        <v>1.165689841332409</v>
+        <v>1.773178967186254</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.613775204377362</v>
+        <v>2.478842738614048</v>
       </c>
       <c r="C8">
-        <v>0.9683496727304828</v>
+        <v>0.5837311172229533</v>
       </c>
       <c r="D8">
-        <v>0.05908866012720893</v>
+        <v>0.1757322439318187</v>
       </c>
       <c r="E8">
-        <v>0.122219980491252</v>
+        <v>0.1608590162600905</v>
       </c>
       <c r="F8">
-        <v>2.015976325996789</v>
+        <v>0.8710924034749894</v>
       </c>
       <c r="G8">
-        <v>0.0007948179383032031</v>
+        <v>0.0007905899054486085</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2127874692518219</v>
+        <v>0.1869998682055112</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7059814047659767</v>
+        <v>0.6958267389298385</v>
       </c>
       <c r="O8">
-        <v>1.31242659151043</v>
+        <v>1.935868313502283</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.913850366797192</v>
+        <v>3.335474196306961</v>
       </c>
       <c r="C9">
-        <v>1.323753529467865</v>
+        <v>0.7792027666350236</v>
       </c>
       <c r="D9">
-        <v>0.07621655886028833</v>
+        <v>0.2258266623578606</v>
       </c>
       <c r="E9">
-        <v>0.1586466527161434</v>
+        <v>0.2073742263853546</v>
       </c>
       <c r="F9">
-        <v>2.514337681038711</v>
+        <v>1.050742824934687</v>
       </c>
       <c r="G9">
-        <v>0.0007745221166613429</v>
+        <v>0.0007793649629432272</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2775009887790958</v>
+        <v>0.2418492294482064</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5766034493529695</v>
+        <v>0.6613283738913864</v>
       </c>
       <c r="O9">
-        <v>1.63281559726542</v>
+        <v>2.296876171632505</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.908950098549951</v>
+        <v>3.971879153420957</v>
       </c>
       <c r="C10">
-        <v>1.595463962217991</v>
+        <v>0.9237098353109729</v>
       </c>
       <c r="D10">
-        <v>0.0891289817297789</v>
+        <v>0.2635306987556874</v>
       </c>
       <c r="E10">
-        <v>0.1869356024861233</v>
+        <v>0.2428138898019583</v>
       </c>
       <c r="F10">
-        <v>2.918651739740426</v>
+        <v>1.19480796885891</v>
       </c>
       <c r="G10">
-        <v>0.0007600817610045892</v>
+        <v>0.000771520282856063</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3284767562652178</v>
+        <v>0.2840371444960965</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4910719979683549</v>
+        <v>0.6418681020421602</v>
       </c>
       <c r="O10">
-        <v>1.89483585862304</v>
+        <v>2.593456914534102</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.373624519499629</v>
+        <v>4.263597763467487</v>
       </c>
       <c r="C11">
-        <v>1.722304774467943</v>
+        <v>0.9897739376763752</v>
       </c>
       <c r="D11">
-        <v>0.09509903219953486</v>
+        <v>0.2809281188104364</v>
       </c>
       <c r="E11">
-        <v>0.2002444072516454</v>
+        <v>0.25927961239897</v>
       </c>
       <c r="F11">
-        <v>3.113379345511873</v>
+        <v>1.263513011756871</v>
       </c>
       <c r="G11">
-        <v>0.0007535813313459747</v>
+        <v>0.0007680302923281652</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3526569820782726</v>
+        <v>0.3037431078299164</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4545860424067669</v>
+        <v>0.6344446404961559</v>
       </c>
       <c r="O11">
-        <v>2.021569293716212</v>
+        <v>2.736578906205295</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.551629625702788</v>
+        <v>4.374442736518802</v>
       </c>
       <c r="C12">
-        <v>1.770892365474992</v>
+        <v>1.014849404501348</v>
       </c>
       <c r="D12">
-        <v>0.09737590487955572</v>
+        <v>0.2875558230747259</v>
       </c>
       <c r="E12">
-        <v>0.2053578259952218</v>
+        <v>0.2655704135749488</v>
       </c>
       <c r="F12">
-        <v>3.188914628556915</v>
+        <v>1.290034845993276</v>
       </c>
       <c r="G12">
-        <v>0.0007511264376111366</v>
+        <v>0.0007667192616864287</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3619797248086911</v>
+        <v>0.3112885673212133</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4411532498776154</v>
+        <v>0.6318528691568872</v>
       </c>
       <c r="O12">
-        <v>2.070814334247771</v>
+        <v>2.792081979028211</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.513196643081187</v>
+        <v>4.350552505469466</v>
       </c>
       <c r="C13">
-        <v>1.76040186828692</v>
+        <v>1.009446162653973</v>
       </c>
       <c r="D13">
-        <v>0.09688478120048671</v>
+        <v>0.2861265904280401</v>
       </c>
       <c r="E13">
-        <v>0.2042531025647278</v>
+        <v>0.2642130016733901</v>
       </c>
       <c r="F13">
-        <v>3.172562636541187</v>
+        <v>1.284299622227053</v>
       </c>
       <c r="G13">
-        <v>0.0007516549011456335</v>
+        <v>0.0007670011587836423</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3599640993490141</v>
+        <v>0.3096596595838008</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4440285640927435</v>
+        <v>0.6324010669280256</v>
       </c>
       <c r="O13">
-        <v>2.060149807959363</v>
+        <v>2.780068202264857</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.388226184595567</v>
+        <v>4.272709124769506</v>
       </c>
       <c r="C14">
-        <v>1.726290405029829</v>
+        <v>0.991835671416311</v>
       </c>
       <c r="D14">
-        <v>0.09528601389979485</v>
+        <v>0.2814725625745638</v>
       </c>
       <c r="E14">
-        <v>0.2006635502975129</v>
+        <v>0.2597960094209384</v>
       </c>
       <c r="F14">
-        <v>3.11955616893988</v>
+        <v>1.265684568219356</v>
       </c>
       <c r="G14">
-        <v>0.0007533792516955631</v>
+        <v>0.0007679222260292436</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.353420490806343</v>
+        <v>0.3043621532264069</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4534730098572943</v>
+        <v>0.6342269351288863</v>
       </c>
       <c r="O14">
-        <v>2.02559452634263</v>
+        <v>2.741118247006852</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.311954407313578</v>
+        <v>4.225078802509529</v>
       </c>
       <c r="C15">
-        <v>1.705471414213889</v>
+        <v>0.9810567020590497</v>
       </c>
       <c r="D15">
-        <v>0.09430889951140387</v>
+        <v>0.2786271388715704</v>
       </c>
       <c r="E15">
-        <v>0.1984747719121742</v>
+        <v>0.2570979038520065</v>
       </c>
       <c r="F15">
-        <v>3.087329873037078</v>
+        <v>1.254349564666086</v>
       </c>
       <c r="G15">
-        <v>0.000754436234047362</v>
+        <v>0.00076848775749482</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3494347481322961</v>
+        <v>0.3011284060769412</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4593090989139768</v>
+        <v>0.6353743243575991</v>
       </c>
       <c r="O15">
-        <v>2.004597149505869</v>
+        <v>2.717434254261974</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.878850143691409</v>
+        <v>3.952864149339575</v>
       </c>
       <c r="C16">
-        <v>1.587247192498921</v>
+        <v>0.9193999223453488</v>
       </c>
       <c r="D16">
-        <v>0.0887409505747172</v>
+        <v>0.2623990437555221</v>
       </c>
       <c r="E16">
-        <v>0.1860755512156089</v>
+        <v>0.2417452503866073</v>
       </c>
       <c r="F16">
-        <v>2.906163210818988</v>
+        <v>1.190385801280755</v>
       </c>
       <c r="G16">
-        <v>0.0007605076966557937</v>
+        <v>0.0007717498807572332</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3269184166601775</v>
+        <v>0.2827604395985759</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4935080966009693</v>
+        <v>0.6423831580993848</v>
       </c>
       <c r="O16">
-        <v>1.886719216005986</v>
+        <v>2.584279204889043</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.616440491543926</v>
+        <v>3.786476915060916</v>
       </c>
       <c r="C17">
-        <v>1.515610068337878</v>
+        <v>0.8816670367002075</v>
       </c>
       <c r="D17">
-        <v>0.08535137014504102</v>
+        <v>0.2525095388423324</v>
       </c>
       <c r="E17">
-        <v>0.1785886880686363</v>
+        <v>0.2324192055781822</v>
       </c>
       <c r="F17">
-        <v>2.797952706548386</v>
+        <v>1.151991405731309</v>
       </c>
       <c r="G17">
-        <v>0.0007642477688584042</v>
+        <v>0.000773770702505278</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3133750748765038</v>
+        <v>0.2716303997827509</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5151321865779899</v>
+        <v>0.647058389471546</v>
       </c>
       <c r="O17">
-        <v>1.816449443407848</v>
+        <v>2.504780969787817</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.466617374732664</v>
+        <v>3.690980022219037</v>
       </c>
       <c r="C18">
-        <v>1.474705016664814</v>
+        <v>0.8599941255077681</v>
       </c>
       <c r="D18">
-        <v>0.08341066471740533</v>
+        <v>0.2468441991674837</v>
       </c>
       <c r="E18">
-        <v>0.1743231598023769</v>
+        <v>0.2270870988154456</v>
       </c>
       <c r="F18">
-        <v>2.736713375694222</v>
+        <v>1.130203090225507</v>
       </c>
       <c r="G18">
-        <v>0.0007664056261273434</v>
+        <v>0.0007749404714101544</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.3056769915842921</v>
+        <v>0.2652765206531598</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5277954528002304</v>
+        <v>0.6498810850191958</v>
       </c>
       <c r="O18">
-        <v>1.776730305802701</v>
+        <v>2.459819940890981</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.416071152274299</v>
+        <v>3.658679848303905</v>
       </c>
       <c r="C19">
-        <v>1.46090403422312</v>
+        <v>0.852660880948747</v>
       </c>
       <c r="D19">
-        <v>0.08275503658033756</v>
+        <v>0.2449298088035192</v>
       </c>
       <c r="E19">
-        <v>0.1728856245032944</v>
+        <v>0.2252870548316963</v>
       </c>
       <c r="F19">
-        <v>2.716143763112001</v>
+        <v>1.122875200519275</v>
       </c>
       <c r="G19">
-        <v>0.0007671374748287087</v>
+        <v>0.0007753378357415961</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3030856307014602</v>
+        <v>0.263133150902803</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5321207781347042</v>
+        <v>0.6508593474247348</v>
       </c>
       <c r="O19">
-        <v>1.763397202985317</v>
+        <v>2.444724502021472</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.644257612384592</v>
+        <v>3.804167529366794</v>
       </c>
       <c r="C20">
-        <v>1.523204433159719</v>
+        <v>0.8856805779809633</v>
       </c>
       <c r="D20">
-        <v>0.08571126069174539</v>
+        <v>0.2535598990763646</v>
       </c>
       <c r="E20">
-        <v>0.179381392557012</v>
+        <v>0.2334086256926753</v>
       </c>
       <c r="F20">
-        <v>2.809366700201679</v>
+        <v>1.156047668079566</v>
       </c>
       <c r="G20">
-        <v>0.0007638489634726735</v>
+        <v>0.0007735548172348348</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3148071360074454</v>
+        <v>0.2728101971897843</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5128066701627425</v>
+        <v>0.6465467765169421</v>
       </c>
       <c r="O20">
-        <v>1.82385636663038</v>
+        <v>2.513163716433581</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.424874839433528</v>
+        <v>4.295562872429116</v>
       </c>
       <c r="C21">
-        <v>1.736293904034142</v>
+        <v>0.9970066178076991</v>
       </c>
       <c r="D21">
-        <v>0.09575515237855114</v>
+        <v>0.282838449996504</v>
       </c>
       <c r="E21">
-        <v>0.2017157996154069</v>
+        <v>0.2610918271121889</v>
       </c>
       <c r="F21">
-        <v>3.135074601932615</v>
+        <v>1.271138151728564</v>
       </c>
       <c r="G21">
-        <v>0.0007528726145065528</v>
+        <v>0.0007676514060824707</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3553377906446684</v>
+        <v>0.3059158224396299</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4506882293013881</v>
+        <v>0.6336845652230068</v>
       </c>
       <c r="O21">
-        <v>2.035708749459246</v>
+        <v>2.752522296189511</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.947142348908699</v>
+        <v>4.618949498437701</v>
       </c>
       <c r="C22">
-        <v>1.878851019471028</v>
+        <v>1.070111249650552</v>
       </c>
       <c r="D22">
-        <v>0.1024148337293269</v>
+        <v>0.3022072429321128</v>
       </c>
       <c r="E22">
-        <v>0.2167479059887683</v>
+        <v>0.2795116379796454</v>
       </c>
       <c r="F22">
-        <v>3.35855141205235</v>
+        <v>1.349324132120003</v>
       </c>
       <c r="G22">
-        <v>0.0007457360557482799</v>
+        <v>0.0007638543064027391</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3828092849423541</v>
+        <v>0.3280423255621656</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4123465583168695</v>
+        <v>0.6265640091625357</v>
       </c>
       <c r="O22">
-        <v>2.181571752867526</v>
+        <v>2.916634839227299</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.667175274171882</v>
+        <v>4.446126932567608</v>
       </c>
       <c r="C23">
-        <v>1.802431226971578</v>
+        <v>1.031058164957045</v>
       </c>
       <c r="D23">
-        <v>0.09885085289317885</v>
+        <v>0.2918468471906976</v>
       </c>
       <c r="E23">
-        <v>0.2086813362547844</v>
+        <v>0.269648537139652</v>
       </c>
       <c r="F23">
-        <v>3.238217597754812</v>
+        <v>1.307305974533506</v>
       </c>
       <c r="G23">
-        <v>0.0007495427431001429</v>
+        <v>0.0007658755602423842</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3680486079777552</v>
+        <v>0.3161848830284839</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4325907783611456</v>
+        <v>0.6302418942235164</v>
       </c>
       <c r="O23">
-        <v>2.102981788059651</v>
+        <v>2.82829796427481</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.631678277079459</v>
+        <v>3.796169104482203</v>
       </c>
       <c r="C24">
-        <v>1.51977015505355</v>
+        <v>0.8838659938113267</v>
       </c>
       <c r="D24">
-        <v>0.08554852939904123</v>
+        <v>0.2530849684074923</v>
       </c>
       <c r="E24">
-        <v>0.1790228908665696</v>
+        <v>0.2329612172402946</v>
       </c>
       <c r="F24">
-        <v>2.804203422981203</v>
+        <v>1.15421294739987</v>
       </c>
       <c r="G24">
-        <v>0.0007640292393030692</v>
+        <v>0.0007736523940394382</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.314159428304265</v>
+        <v>0.2722766715285161</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5138573183256625</v>
+        <v>0.6467776577616107</v>
       </c>
       <c r="O24">
-        <v>1.820505591450754</v>
+        <v>2.509371570025081</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.556144547058466</v>
+        <v>3.102709391882911</v>
       </c>
       <c r="C25">
-        <v>1.226031083019905</v>
+        <v>0.7262063080360122</v>
       </c>
       <c r="D25">
-        <v>0.07153281414534973</v>
+        <v>0.2121325017302951</v>
       </c>
       <c r="E25">
-        <v>0.1485573097545156</v>
+        <v>0.1945902600602167</v>
       </c>
       <c r="F25">
-        <v>2.37358201353149</v>
+        <v>1.000194775321859</v>
       </c>
       <c r="G25">
-        <v>0.0007799196953732689</v>
+        <v>0.0007823282156077626</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2594667169256724</v>
+        <v>0.2267118169329336</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6100404305220692</v>
+        <v>0.6696758162035792</v>
       </c>
       <c r="O25">
-        <v>1.542000868088806</v>
+        <v>2.194151458059707</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.596613226829618</v>
+        <v>2.223444595446722</v>
       </c>
       <c r="C2">
-        <v>0.6106788415487188</v>
+        <v>0.5715191137079501</v>
       </c>
       <c r="D2">
-        <v>0.1825662917294437</v>
+        <v>0.2709224708530513</v>
       </c>
       <c r="E2">
-        <v>0.1671626838473443</v>
+        <v>0.2264871078533019</v>
       </c>
       <c r="F2">
-        <v>0.8947005118748166</v>
+        <v>0.660616244610253</v>
       </c>
       <c r="G2">
-        <v>0.000788989535570907</v>
+        <v>0.3359046216013866</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.003293311102976149</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1943943018628076</v>
+        <v>0.264922892687224</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1571900771557821</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2476827768971717</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6904304994013799</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.982590443879246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.8239553755264524</v>
+      </c>
+      <c r="Q2">
+        <v>1.216687394192576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.255513266589332</v>
+        <v>1.938208775094523</v>
       </c>
       <c r="C3">
-        <v>0.5325564334100932</v>
+        <v>0.5003028011698234</v>
       </c>
       <c r="D3">
-        <v>0.1628272389172167</v>
+        <v>0.2438545409429764</v>
       </c>
       <c r="E3">
-        <v>0.1489954677274135</v>
+        <v>0.2039164223724796</v>
       </c>
       <c r="F3">
-        <v>0.8273963018482107</v>
+        <v>0.6142633794636154</v>
       </c>
       <c r="G3">
-        <v>0.0007936864532094415</v>
+        <v>0.3099234740529369</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001849918150761853</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1731200721879205</v>
+        <v>0.2570400458628299</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1595582101202595</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2229685610003287</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7067187484711752</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.850121114786617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.8070097909044165</v>
+      </c>
+      <c r="Q3">
+        <v>1.144806870893859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.04673417833402</v>
+        <v>1.762766061216468</v>
       </c>
       <c r="C4">
-        <v>0.4846220427483559</v>
+        <v>0.4564761045235457</v>
       </c>
       <c r="D4">
-        <v>0.1508341542246399</v>
+        <v>0.2272498345630396</v>
       </c>
       <c r="E4">
-        <v>0.1380200213219673</v>
+        <v>0.1900474567568899</v>
       </c>
       <c r="F4">
-        <v>0.7879132325495277</v>
+        <v>0.5864684541256793</v>
       </c>
       <c r="G4">
-        <v>0.0007966640343666796</v>
+        <v>0.2944959428445273</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001146065095243509</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.16032484277045</v>
+        <v>0.2525444418065277</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1614057035162944</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2077683281668854</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7177531937122623</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.773588823770837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.7972265783763177</v>
+      </c>
+      <c r="Q4">
+        <v>1.102497852237633</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.961783993274963</v>
+        <v>1.691186155377238</v>
       </c>
       <c r="C5">
-        <v>0.4650899296098032</v>
+        <v>0.4385896695834504</v>
       </c>
       <c r="D5">
-        <v>0.1459760046326863</v>
+        <v>0.2204856109755298</v>
       </c>
       <c r="E5">
-        <v>0.1335886635331747</v>
+        <v>0.1843915025963163</v>
       </c>
       <c r="F5">
-        <v>0.7722555930372295</v>
+        <v>0.5752994427866369</v>
       </c>
       <c r="G5">
-        <v>0.0007979014754348149</v>
+        <v>0.288332852639698</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0009022789078041438</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1551720599264286</v>
+        <v>0.2507953672015049</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1622533122323819</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2015655925108248</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7225008530999233</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.743529456353087</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.7933909496198197</v>
+      </c>
+      <c r="Q5">
+        <v>1.085690442091177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.947684850623148</v>
+        <v>1.679294964040537</v>
       </c>
       <c r="C6">
-        <v>0.4618465409958503</v>
+        <v>0.4356179825053346</v>
       </c>
       <c r="D6">
-        <v>0.1451709946693995</v>
+        <v>0.2193625158077168</v>
       </c>
       <c r="E6">
-        <v>0.1328552212213445</v>
+        <v>0.1834520341174795</v>
       </c>
       <c r="F6">
-        <v>0.7696808694301325</v>
+        <v>0.5734540792406477</v>
       </c>
       <c r="G6">
-        <v>0.0007981084186064466</v>
+        <v>0.2873167153442466</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0008643169788282723</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1543199874259358</v>
+        <v>0.2505098373651506</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1623996592557813</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2005350593098569</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7233041118670229</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.738604005673977</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.7927630275968269</v>
+      </c>
+      <c r="Q6">
+        <v>1.082925068353504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.04558803458599</v>
+        <v>1.761801066754089</v>
       </c>
       <c r="C7">
-        <v>0.4843586282219405</v>
+        <v>0.4562349920003896</v>
       </c>
       <c r="D7">
-        <v>0.1507685210906544</v>
+        <v>0.2271586023425272</v>
       </c>
       <c r="E7">
-        <v>0.137960096500958</v>
+        <v>0.189971197814323</v>
       </c>
       <c r="F7">
-        <v>0.7877003587831126</v>
+        <v>0.5863171993000407</v>
       </c>
       <c r="G7">
-        <v>0.0007966806248690385</v>
+        <v>0.2944123348581869</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001142606711718397</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1602551094766511</v>
+        <v>0.2525205222208626</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1614167564986388</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2076847130821307</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7178162171646676</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.773178967186254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7971742445178549</v>
+      </c>
+      <c r="Q7">
+        <v>1.102269457627713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.478842738614048</v>
+        <v>2.125153592913534</v>
       </c>
       <c r="C8">
-        <v>0.5837311172229533</v>
+        <v>0.5469833361759697</v>
       </c>
       <c r="D8">
-        <v>0.1757322439318187</v>
+        <v>0.2615853977760594</v>
       </c>
       <c r="E8">
-        <v>0.1608590162600905</v>
+        <v>0.218705917054784</v>
       </c>
       <c r="F8">
-        <v>0.8710924034749894</v>
+        <v>0.6444895280657974</v>
       </c>
       <c r="G8">
-        <v>0.0007905899054486085</v>
+        <v>0.3268322772617722</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.002756044315468609</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1869998682055112</v>
+        <v>0.2621311078780053</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.157922376901368</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2391653470058586</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6958267389298385</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.935868313502283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.8179803600486366</v>
+      </c>
+      <c r="Q8">
+        <v>1.191508471251012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.335474196306961</v>
+        <v>2.835700317467001</v>
       </c>
       <c r="C9">
-        <v>0.7792027666350236</v>
+        <v>0.7242411894437453</v>
       </c>
       <c r="D9">
-        <v>0.2258266623578606</v>
+        <v>0.3292890221699167</v>
       </c>
       <c r="E9">
-        <v>0.2073742263853546</v>
+        <v>0.2750495551522292</v>
       </c>
       <c r="F9">
-        <v>1.050742824934687</v>
+        <v>0.7643158871159699</v>
       </c>
       <c r="G9">
-        <v>0.0007793649629432272</v>
+        <v>0.3949647875532918</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.00749894027815512</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2418492294482064</v>
+        <v>0.2838863297073573</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1543880502775217</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3007958224400227</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6613283738913864</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.296876171632505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.8639610476678996</v>
+      </c>
+      <c r="Q9">
+        <v>1.38219149997667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.971879153420957</v>
+        <v>3.347407288012221</v>
       </c>
       <c r="C10">
-        <v>0.9237098353109729</v>
+        <v>0.8491754180625151</v>
       </c>
       <c r="D10">
-        <v>0.2635306987556874</v>
+        <v>0.371119747901048</v>
       </c>
       <c r="E10">
-        <v>0.2428138898019583</v>
+        <v>0.3055943300880486</v>
       </c>
       <c r="F10">
-        <v>1.19480796885891</v>
+        <v>0.8441586126558036</v>
       </c>
       <c r="G10">
-        <v>0.000771520282856063</v>
+        <v>0.4424844886576125</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.01199862479508562</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2840371444960965</v>
+        <v>0.2990173215831646</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1523149244830044</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3311240242548337</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6418681020421602</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.593456914534102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.9064288828021461</v>
+      </c>
+      <c r="Q10">
+        <v>1.51507739597568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.263597763467487</v>
+        <v>3.493604330037044</v>
       </c>
       <c r="C11">
-        <v>0.9897739376763752</v>
+        <v>0.8621575998110416</v>
       </c>
       <c r="D11">
-        <v>0.2809281188104364</v>
+        <v>0.3221623210167621</v>
       </c>
       <c r="E11">
-        <v>0.25927961239897</v>
+        <v>0.2320586881632352</v>
       </c>
       <c r="F11">
-        <v>1.263513011756871</v>
+        <v>0.7757275154484518</v>
       </c>
       <c r="G11">
-        <v>0.0007680302923281652</v>
+        <v>0.4143544382585702</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.03030782360258755</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3037431078299164</v>
+        <v>0.281531956546246</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.1368218215950883</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2293565603619498</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6344446404961559</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.736578906205295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.9736319295237905</v>
+      </c>
+      <c r="Q11">
+        <v>1.418993491597035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.374442736518802</v>
+        <v>3.507141222685789</v>
       </c>
       <c r="C12">
-        <v>1.014849404501348</v>
+        <v>0.846371156751303</v>
       </c>
       <c r="D12">
-        <v>0.2875558230747259</v>
+        <v>0.2754304409500605</v>
       </c>
       <c r="E12">
-        <v>0.2655704135749488</v>
+        <v>0.1739138890256697</v>
       </c>
       <c r="F12">
-        <v>1.290034845993276</v>
+        <v>0.7029983785060665</v>
       </c>
       <c r="G12">
-        <v>0.0007667192616864287</v>
+        <v>0.3809833724223637</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0682936760753492</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3112885673212133</v>
+        <v>0.2635980711570198</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1244726317052702</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1572493511590594</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6318528691568872</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.792081979028211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1.024029303159409</v>
+      </c>
+      <c r="Q12">
+        <v>1.310744585623212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.350552505469466</v>
+        <v>3.419291289700084</v>
       </c>
       <c r="C13">
-        <v>1.009446162653973</v>
+        <v>0.8076969392403726</v>
       </c>
       <c r="D13">
-        <v>0.2861265904280401</v>
+        <v>0.2279658230152677</v>
       </c>
       <c r="E13">
-        <v>0.2642130016733901</v>
+        <v>0.1244671063617666</v>
       </c>
       <c r="F13">
-        <v>1.284299622227053</v>
+        <v>0.6229537722904723</v>
       </c>
       <c r="G13">
-        <v>0.0007670011587836423</v>
+        <v>0.3416529582428041</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1229456703837286</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3096596595838008</v>
+        <v>0.244245502940629</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.113715971129988</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1039258954506899</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6324010669280256</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.780068202264857</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.063406155442394</v>
+      </c>
+      <c r="Q13">
+        <v>1.18680499306285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.272709124769506</v>
+        <v>3.312207603306206</v>
       </c>
       <c r="C14">
-        <v>0.991835671416311</v>
+        <v>0.7704865019474312</v>
       </c>
       <c r="D14">
-        <v>0.2814725625745638</v>
+        <v>0.1951762037232925</v>
       </c>
       <c r="E14">
-        <v>0.2597960094209384</v>
+        <v>0.09544905719170771</v>
       </c>
       <c r="F14">
-        <v>1.265684568219356</v>
+        <v>0.564455160363984</v>
       </c>
       <c r="G14">
-        <v>0.0007679222260292436</v>
+        <v>0.3117964956969388</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1713940090102284</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3043621532264069</v>
+        <v>0.2302089862855894</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1070343889169099</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0780211733002254</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6342269351288863</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.741118247006852</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.085909761741235</v>
+      </c>
+      <c r="Q14">
+        <v>1.094052941607004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.225078802509529</v>
+        <v>3.264879166973003</v>
       </c>
       <c r="C15">
-        <v>0.9810567020590497</v>
+        <v>0.7566633192154768</v>
       </c>
       <c r="D15">
-        <v>0.2786271388715704</v>
+        <v>0.1866705087781213</v>
       </c>
       <c r="E15">
-        <v>0.2570979038520065</v>
+        <v>0.08895681605788397</v>
       </c>
       <c r="F15">
-        <v>1.254349564666086</v>
+        <v>0.5485202788885246</v>
       </c>
       <c r="G15">
-        <v>0.00076848775749482</v>
+        <v>0.3032553892195011</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1835315334704859</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3011284060769412</v>
+        <v>0.226507337116459</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.105712311385961</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07314235309977768</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6353743243575991</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.717434254261974</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.08854660157337</v>
+      </c>
+      <c r="Q15">
+        <v>1.068159386450048</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.952864149339575</v>
+        <v>3.06427123011207</v>
       </c>
       <c r="C16">
-        <v>0.9193999223453488</v>
+        <v>0.7118252594715386</v>
       </c>
       <c r="D16">
-        <v>0.2623990437555221</v>
+        <v>0.179641454673245</v>
       </c>
       <c r="E16">
-        <v>0.2417452503866073</v>
+        <v>0.08733861811967003</v>
       </c>
       <c r="F16">
-        <v>1.190385801280755</v>
+        <v>0.5317496493278924</v>
       </c>
       <c r="G16">
-        <v>0.0007717498807572332</v>
+        <v>0.2911786384235882</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1690574060562824</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2827604395985759</v>
+        <v>0.2239773444573103</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1085307178695292</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07258255805268732</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6423831580993848</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.584279204889043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.059432658100391</v>
+      </c>
+      <c r="Q16">
+        <v>1.0370687058481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.786476915060916</v>
+        <v>2.967352159786742</v>
       </c>
       <c r="C17">
-        <v>0.8816670367002075</v>
+        <v>0.6970805632752217</v>
       </c>
       <c r="D17">
-        <v>0.2525095388423324</v>
+        <v>0.1911325055020825</v>
       </c>
       <c r="E17">
-        <v>0.2324192055781822</v>
+        <v>0.1003344622441844</v>
       </c>
       <c r="F17">
-        <v>1.151991405731309</v>
+        <v>0.5496014222577443</v>
       </c>
       <c r="G17">
-        <v>0.000773770702505278</v>
+        <v>0.2977003696855149</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1304236514443744</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2716303997827509</v>
+        <v>0.2294984735414687</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1142763738846178</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.0838456287840792</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.647058389471546</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.504780969787817</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.02554136139922</v>
+      </c>
+      <c r="Q17">
+        <v>1.062343902798204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.690980022219037</v>
+        <v>2.947855987080459</v>
       </c>
       <c r="C18">
-        <v>0.8599941255077681</v>
+        <v>0.7065152912078076</v>
       </c>
       <c r="D18">
-        <v>0.2468441991674837</v>
+        <v>0.221762155531124</v>
       </c>
       <c r="E18">
-        <v>0.2270870988154456</v>
+        <v>0.1326487601294275</v>
       </c>
       <c r="F18">
-        <v>1.130203090225507</v>
+        <v>0.6004962750734606</v>
       </c>
       <c r="G18">
-        <v>0.0007749404714101544</v>
+        <v>0.3212690114096972</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07756786315624709</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2652765206531598</v>
+        <v>0.2426351538211833</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1233362367275479</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1165786233145312</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6498810850191958</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.459819940890981</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.9845502947409841</v>
+      </c>
+      <c r="Q18">
+        <v>1.139764522202285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.658679848303905</v>
+        <v>2.991668407831128</v>
       </c>
       <c r="C19">
-        <v>0.852660880948747</v>
+        <v>0.7349392619068453</v>
       </c>
       <c r="D19">
-        <v>0.2449298088035192</v>
+        <v>0.2686764528015289</v>
       </c>
       <c r="E19">
-        <v>0.2252870548316963</v>
+        <v>0.1862785015336499</v>
       </c>
       <c r="F19">
-        <v>1.122875200519275</v>
+        <v>0.6768132426896329</v>
       </c>
       <c r="G19">
-        <v>0.0007753378357415961</v>
+        <v>0.357747675275732</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03323666547044013</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.263133150902803</v>
+        <v>0.2612623274374499</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1348061448995388</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1794096429732193</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6508593474247348</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.444724502021472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.9420307382449948</v>
+      </c>
+      <c r="Q19">
+        <v>1.256106522333681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.804167529366794</v>
+        <v>3.212675219994537</v>
       </c>
       <c r="C20">
-        <v>0.8856805779809633</v>
+        <v>0.8161883745865168</v>
       </c>
       <c r="D20">
-        <v>0.2535598990763646</v>
+        <v>0.3597868236345789</v>
       </c>
       <c r="E20">
-        <v>0.2334086256926753</v>
+        <v>0.2971110721045491</v>
       </c>
       <c r="F20">
-        <v>1.156047668079566</v>
+        <v>0.8223823607544176</v>
       </c>
       <c r="G20">
-        <v>0.0007735548172348348</v>
+        <v>0.4295187136392258</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.01070610922058091</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2728101971897843</v>
+        <v>0.2947786477443373</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1526162226157943</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3225241415502751</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6465467765169421</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.513163716433581</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.8952138694881313</v>
+      </c>
+      <c r="Q20">
+        <v>1.478595788035449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.295562872429116</v>
+        <v>3.620525757269718</v>
       </c>
       <c r="C21">
-        <v>0.9970066178076991</v>
+        <v>0.9197514371608122</v>
       </c>
       <c r="D21">
-        <v>0.282838449996504</v>
+        <v>0.4045632406985504</v>
       </c>
       <c r="E21">
-        <v>0.2610918271121889</v>
+        <v>0.3375661506071452</v>
       </c>
       <c r="F21">
-        <v>1.271138151728564</v>
+        <v>0.9043113058620804</v>
       </c>
       <c r="G21">
-        <v>0.0007676514060824707</v>
+        <v>0.4763107563779272</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01481230603087719</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3059158224396299</v>
+        <v>0.3115632563185358</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1545996937441139</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3691166562064296</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6336845652230068</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.752522296189511</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.9210761898188622</v>
+      </c>
+      <c r="Q21">
+        <v>1.613289514558147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.618949498437701</v>
+        <v>3.882242906051715</v>
       </c>
       <c r="C22">
-        <v>1.070111249650552</v>
+        <v>0.9848887666146595</v>
       </c>
       <c r="D22">
-        <v>0.3022072429321128</v>
+        <v>0.4297667128752778</v>
       </c>
       <c r="E22">
-        <v>0.2795116379796454</v>
+        <v>0.3584856137905348</v>
       </c>
       <c r="F22">
-        <v>1.349324132120003</v>
+        <v>0.9525490878602625</v>
       </c>
       <c r="G22">
-        <v>0.0007638543064027391</v>
+        <v>0.5046975742901623</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01768499870981621</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3280423255621656</v>
+        <v>0.3215209415573952</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.155500517554124</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3919757995365387</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6265640091625357</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.916634839227299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.9413542577103726</v>
+      </c>
+      <c r="Q22">
+        <v>1.694538621798131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.446126932567608</v>
+        <v>3.742540561697695</v>
       </c>
       <c r="C23">
-        <v>1.031058164957045</v>
+        <v>0.9501226284507993</v>
       </c>
       <c r="D23">
-        <v>0.2918468471906976</v>
+        <v>0.4163073145539187</v>
       </c>
       <c r="E23">
-        <v>0.269648537139652</v>
+        <v>0.3473143854715843</v>
       </c>
       <c r="F23">
-        <v>1.307305974533506</v>
+        <v>0.926708774422309</v>
       </c>
       <c r="G23">
-        <v>0.0007658755602423842</v>
+        <v>0.4894701631819061</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01612572604946461</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3161848830284839</v>
+        <v>0.3161630972187766</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.154970964523482</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3797686479242515</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6302418942235164</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.82829796427481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.9304589233704377</v>
+      </c>
+      <c r="Q23">
+        <v>1.65092166056067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.796169104482203</v>
+        <v>3.213772916821426</v>
       </c>
       <c r="C24">
-        <v>0.8838659938113267</v>
+        <v>0.8184584536987245</v>
       </c>
       <c r="D24">
-        <v>0.2530849684074923</v>
+        <v>0.3654913447601587</v>
       </c>
       <c r="E24">
-        <v>0.2329612172402946</v>
+        <v>0.3051260970497012</v>
       </c>
       <c r="F24">
-        <v>1.15421294739987</v>
+        <v>0.8308449730412377</v>
       </c>
       <c r="G24">
-        <v>0.0007736523940394382</v>
+        <v>0.4334170007567906</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.01076995696442651</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2722766715285161</v>
+        <v>0.29678967693944</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1540020854152893</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3336681736279559</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6467776577616107</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.509371570025081</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.8907425261708681</v>
+      </c>
+      <c r="Q24">
+        <v>1.491069238872626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.102709391882911</v>
+        <v>2.64362001876782</v>
       </c>
       <c r="C25">
-        <v>0.7262063080360122</v>
+        <v>0.6763483404413932</v>
       </c>
       <c r="D25">
-        <v>0.2121325017302951</v>
+        <v>0.3109416656189694</v>
       </c>
       <c r="E25">
-        <v>0.1945902600602167</v>
+        <v>0.2597959351549051</v>
       </c>
       <c r="F25">
-        <v>1.000194775321859</v>
+        <v>0.7312153662929006</v>
       </c>
       <c r="G25">
-        <v>0.0007823282156077626</v>
+        <v>0.375987932653004</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.006027757589685601</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2267118169329336</v>
+        <v>0.2776638726064959</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1549605089689869</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2841192333064981</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6696758162035792</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.194151458059707</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8509306486027839</v>
+      </c>
+      <c r="Q25">
+        <v>1.328752055336736</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_21/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_21/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.223444595446722</v>
+        <v>2.179371857224965</v>
       </c>
       <c r="C2">
-        <v>0.5715191137079501</v>
+        <v>0.6026557550646032</v>
       </c>
       <c r="D2">
-        <v>0.2709224708530513</v>
+        <v>0.2729602798804223</v>
       </c>
       <c r="E2">
-        <v>0.2264871078533019</v>
+        <v>0.2260909795969184</v>
       </c>
       <c r="F2">
-        <v>0.660616244610253</v>
+        <v>0.6484626687164479</v>
       </c>
       <c r="G2">
-        <v>0.3359046216013866</v>
+        <v>0.3076390091371053</v>
       </c>
       <c r="H2">
-        <v>0.003293311102976149</v>
+        <v>0.002988472360169969</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.264922892687224</v>
+        <v>0.3043828128488713</v>
       </c>
       <c r="K2">
-        <v>0.1571900771557821</v>
+        <v>0.1510174638573698</v>
       </c>
       <c r="L2">
-        <v>0.2476827768971717</v>
+        <v>0.1097252980219707</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.02355113854123481</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2457103513626677</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8239553755264524</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.216687394192576</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8485140932192934</v>
+      </c>
+      <c r="S2">
+        <v>1.186094320347536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.938208775094523</v>
+        <v>1.905947724110831</v>
       </c>
       <c r="C3">
-        <v>0.5003028011698234</v>
+        <v>0.5226738665493258</v>
       </c>
       <c r="D3">
-        <v>0.2438545409429764</v>
+        <v>0.2453769559158445</v>
       </c>
       <c r="E3">
-        <v>0.2039164223724796</v>
+        <v>0.2036239636205366</v>
       </c>
       <c r="F3">
-        <v>0.6142633794636154</v>
+        <v>0.60529649353591</v>
       </c>
       <c r="G3">
-        <v>0.3099234740529369</v>
+        <v>0.2842091817556565</v>
       </c>
       <c r="H3">
-        <v>0.001849918150761853</v>
+        <v>0.00167591568665304</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2570400458628299</v>
+        <v>0.2960460926398483</v>
       </c>
       <c r="K3">
-        <v>0.1595582101202595</v>
+        <v>0.1543175714991509</v>
       </c>
       <c r="L3">
-        <v>0.2229685610003287</v>
+        <v>0.1148213823985955</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02176727380149845</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2214995896799792</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8070097909044165</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.144806870893859</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8243333020815982</v>
+      </c>
+      <c r="S3">
+        <v>1.122365344806099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.762766061216468</v>
+        <v>1.737476256130662</v>
       </c>
       <c r="C4">
-        <v>0.4564761045235457</v>
+        <v>0.4736225338266706</v>
       </c>
       <c r="D4">
-        <v>0.2272498345630396</v>
+        <v>0.2284768614021715</v>
       </c>
       <c r="E4">
-        <v>0.1900474567568899</v>
+        <v>0.1898223124765011</v>
       </c>
       <c r="F4">
-        <v>0.5864684541256793</v>
+        <v>0.5793247814696159</v>
       </c>
       <c r="G4">
-        <v>0.2944959428445273</v>
+        <v>0.2703166164383362</v>
       </c>
       <c r="H4">
-        <v>0.001146065095243509</v>
+        <v>0.001036114113329711</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2525444418065277</v>
+        <v>0.2910909485879287</v>
       </c>
       <c r="K4">
-        <v>0.1614057035162944</v>
+        <v>0.1566472670661483</v>
       </c>
       <c r="L4">
-        <v>0.2077683281668854</v>
+        <v>0.1181630413576045</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0211951782850317</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2066024000349245</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7972265783763177</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.102497852237633</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8101720962388583</v>
+      </c>
+      <c r="S4">
+        <v>1.084663168429927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.691186155377238</v>
+        <v>1.66866952011091</v>
       </c>
       <c r="C5">
-        <v>0.4385896695834504</v>
+        <v>0.4536466584659706</v>
       </c>
       <c r="D5">
-        <v>0.2204856109755298</v>
+        <v>0.2215976708038028</v>
       </c>
       <c r="E5">
-        <v>0.1843915025963163</v>
+        <v>0.1841948826151096</v>
       </c>
       <c r="F5">
-        <v>0.5752994427866369</v>
+        <v>0.5688665332552105</v>
       </c>
       <c r="G5">
-        <v>0.288332852639698</v>
+        <v>0.264770877792408</v>
       </c>
       <c r="H5">
-        <v>0.0009022789078041438</v>
+        <v>0.0008146444583816415</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2507953672015049</v>
+        <v>0.2891109748264995</v>
       </c>
       <c r="K5">
-        <v>0.1622533122323819</v>
+        <v>0.1576696750630564</v>
       </c>
       <c r="L5">
-        <v>0.2015655925108248</v>
+        <v>0.1195782379119432</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0210913062239193</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2005218797853132</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7933909496198197</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.085690442091177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8045694890765702</v>
+      </c>
+      <c r="S5">
+        <v>1.069637033013279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.679294964040537</v>
+        <v>1.657234810410074</v>
       </c>
       <c r="C6">
-        <v>0.4356179825053346</v>
+        <v>0.4503304173456115</v>
       </c>
       <c r="D6">
-        <v>0.2193625158077168</v>
+        <v>0.2204558150567948</v>
       </c>
       <c r="E6">
-        <v>0.1834520341174795</v>
+        <v>0.1832602214871386</v>
       </c>
       <c r="F6">
-        <v>0.5734540792406477</v>
+        <v>0.5671372837321371</v>
       </c>
       <c r="G6">
-        <v>0.2873167153442466</v>
+        <v>0.2638567515868075</v>
       </c>
       <c r="H6">
-        <v>0.0008643169788282723</v>
+        <v>0.0007801683351618127</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2505098373651506</v>
+        <v>0.2887845215731062</v>
       </c>
       <c r="K6">
-        <v>0.1623996592557813</v>
+        <v>0.1578437632313126</v>
       </c>
       <c r="L6">
-        <v>0.2005350593098569</v>
+        <v>0.1198164575248111</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02108180002411775</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1995115703532662</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7927630275968269</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.082925068353504</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8036492191653508</v>
+      </c>
+      <c r="S6">
+        <v>1.067161752908746</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.761801066754089</v>
+        <v>1.735427139157082</v>
       </c>
       <c r="C7">
-        <v>0.4562349920003896</v>
+        <v>0.4726183962517325</v>
       </c>
       <c r="D7">
-        <v>0.2271586023425272</v>
+        <v>0.2285787526243865</v>
       </c>
       <c r="E7">
-        <v>0.189971197814323</v>
+        <v>0.1897853779607388</v>
       </c>
       <c r="F7">
-        <v>0.5863171993000407</v>
+        <v>0.5783192123516798</v>
       </c>
       <c r="G7">
-        <v>0.2944123348581869</v>
+        <v>0.2731501930194682</v>
       </c>
       <c r="H7">
-        <v>0.001142606711718397</v>
+        <v>0.001030717631867351</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2525205222208626</v>
+        <v>0.2868330852632894</v>
       </c>
       <c r="K7">
-        <v>0.1614167564986388</v>
+        <v>0.156443811419912</v>
       </c>
       <c r="L7">
-        <v>0.2076847130821307</v>
+        <v>0.1180600092458857</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02114673618746021</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2064700384482379</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7971742445178549</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.102269457627713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8106714395667751</v>
+      </c>
+      <c r="S7">
+        <v>1.082136232512767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.125153592913534</v>
+        <v>2.081453650707147</v>
       </c>
       <c r="C8">
-        <v>0.5469833361759697</v>
+        <v>0.5725861870243989</v>
       </c>
       <c r="D8">
-        <v>0.2615853977760594</v>
+        <v>0.2640965493389302</v>
       </c>
       <c r="E8">
-        <v>0.218705917054784</v>
+        <v>0.2184779471914595</v>
       </c>
       <c r="F8">
-        <v>0.6444895280657974</v>
+        <v>0.6305876425759891</v>
       </c>
       <c r="G8">
-        <v>0.3268322772617722</v>
+        <v>0.3092067059136667</v>
       </c>
       <c r="H8">
-        <v>0.002756044315468609</v>
+        <v>0.002489070045327946</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2621311078780053</v>
+        <v>0.2876345740310953</v>
       </c>
       <c r="K8">
-        <v>0.157922376901368</v>
+        <v>0.1513814395937683</v>
       </c>
       <c r="L8">
-        <v>0.2391653470058586</v>
+        <v>0.111085044979081</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.02262909705966365</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2372022145943475</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8179803600486366</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.191508471251012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8420108250448095</v>
+      </c>
+      <c r="S8">
+        <v>1.156096039258301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.835700317467001</v>
+        <v>2.759717494316249</v>
       </c>
       <c r="C9">
-        <v>0.7242411894437453</v>
+        <v>0.7718365254171999</v>
       </c>
       <c r="D9">
-        <v>0.3292890221699167</v>
+        <v>0.3333928792978469</v>
       </c>
       <c r="E9">
-        <v>0.2750495551522292</v>
+        <v>0.2746175596069449</v>
       </c>
       <c r="F9">
-        <v>0.7643158871159699</v>
+        <v>0.7408499333841263</v>
       </c>
       <c r="G9">
-        <v>0.3949647875532918</v>
+        <v>0.3735471553499252</v>
       </c>
       <c r="H9">
-        <v>0.00749894027815512</v>
+        <v>0.006790947624947641</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2838863297073573</v>
+        <v>0.3055938596110508</v>
       </c>
       <c r="K9">
-        <v>0.1543880502775217</v>
+        <v>0.1448012266692835</v>
       </c>
       <c r="L9">
-        <v>0.3007958224400227</v>
+        <v>0.09954376796075515</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0299609579938025</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2974869059180207</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8639610476678996</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.38219149997667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.9070283434586486</v>
+      </c>
+      <c r="S9">
+        <v>1.321889634612631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.347407288012221</v>
+        <v>3.240269183709586</v>
       </c>
       <c r="C10">
-        <v>0.8491754180625151</v>
+        <v>0.9083110049766674</v>
       </c>
       <c r="D10">
-        <v>0.371119747901048</v>
+        <v>0.37751368849149</v>
       </c>
       <c r="E10">
-        <v>0.3055943300880486</v>
+        <v>0.3052279041978636</v>
       </c>
       <c r="F10">
-        <v>0.8441586126558036</v>
+        <v>0.8084288049497701</v>
       </c>
       <c r="G10">
-        <v>0.4424844886576125</v>
+        <v>0.4361420549563775</v>
       </c>
       <c r="H10">
-        <v>0.01199862479508562</v>
+        <v>0.01084439637681589</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2990173215831646</v>
+        <v>0.2940760054623155</v>
       </c>
       <c r="K10">
-        <v>0.1523149244830044</v>
+        <v>0.1390789360134512</v>
       </c>
       <c r="L10">
-        <v>0.3311240242548337</v>
+        <v>0.09115386864332642</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03696227358016557</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3265862530424926</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9064288828021461</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.51507739597568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.9672770960576713</v>
+      </c>
+      <c r="S10">
+        <v>1.422081562365378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.493604330037044</v>
+        <v>3.369036349274552</v>
       </c>
       <c r="C11">
-        <v>0.8621575998110416</v>
+        <v>0.9115174506727328</v>
       </c>
       <c r="D11">
-        <v>0.3221623210167621</v>
+        <v>0.3300196488545595</v>
       </c>
       <c r="E11">
-        <v>0.2320586881632352</v>
+        <v>0.2317553186276271</v>
       </c>
       <c r="F11">
-        <v>0.7757275154484518</v>
+        <v>0.731837630054585</v>
       </c>
       <c r="G11">
-        <v>0.4143544382585702</v>
+        <v>0.4473122854316642</v>
       </c>
       <c r="H11">
-        <v>0.03030782360258755</v>
+        <v>0.02904299117437503</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.281531956546246</v>
+        <v>0.235180704854784</v>
       </c>
       <c r="K11">
-        <v>0.1368218215950883</v>
+        <v>0.122796929620776</v>
       </c>
       <c r="L11">
-        <v>0.2293565603619498</v>
+        <v>0.08294895699788363</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.03427961189033724</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2247561117376051</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9736319295237905</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.418993491597035</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.04792124285926</v>
+      </c>
+      <c r="S11">
+        <v>1.302362921526196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.507141222685789</v>
+        <v>3.378896263022625</v>
       </c>
       <c r="C12">
-        <v>0.846371156751303</v>
+        <v>0.8878902080478213</v>
       </c>
       <c r="D12">
-        <v>0.2754304409500605</v>
+        <v>0.2831272448152475</v>
       </c>
       <c r="E12">
-        <v>0.1739138890256697</v>
+        <v>0.1734160519964405</v>
       </c>
       <c r="F12">
-        <v>0.7029983785060665</v>
+        <v>0.6585086927426005</v>
       </c>
       <c r="G12">
-        <v>0.3809833724223637</v>
+        <v>0.4315612584964015</v>
       </c>
       <c r="H12">
-        <v>0.0682936760753492</v>
+        <v>0.06703550173555328</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2635980711570198</v>
+        <v>0.2050017877106001</v>
       </c>
       <c r="K12">
-        <v>0.1244726317052702</v>
+        <v>0.1114606619402423</v>
       </c>
       <c r="L12">
-        <v>0.1572493511590594</v>
+        <v>0.07837941327425746</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03072919291122211</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1530789836094542</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1.024029303159409</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.310744585623212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.103665456940533</v>
+      </c>
+      <c r="S12">
+        <v>1.190764552972951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.419291289700084</v>
+        <v>3.300825921907119</v>
       </c>
       <c r="C13">
-        <v>0.8076969392403726</v>
+        <v>0.8442955052036609</v>
       </c>
       <c r="D13">
-        <v>0.2279658230152677</v>
+        <v>0.2340597489889262</v>
       </c>
       <c r="E13">
-        <v>0.1244671063617666</v>
+        <v>0.1235936481418527</v>
       </c>
       <c r="F13">
-        <v>0.6229537722904723</v>
+        <v>0.5848449029374905</v>
       </c>
       <c r="G13">
-        <v>0.3416529582428041</v>
+        <v>0.3871389667245211</v>
       </c>
       <c r="H13">
-        <v>0.1229456703837286</v>
+        <v>0.1217926500408311</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.244245502940629</v>
+        <v>0.1962321025506455</v>
       </c>
       <c r="K13">
-        <v>0.113715971129988</v>
+        <v>0.1033306721219347</v>
       </c>
       <c r="L13">
-        <v>0.1039258954506899</v>
+        <v>0.07595808715604679</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.02658332770580252</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1005141291427023</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.063406155442394</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.18680499306285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.139894466204382</v>
+      </c>
+      <c r="S13">
+        <v>1.082603551788878</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.312207603306206</v>
+        <v>3.206383191508223</v>
       </c>
       <c r="C14">
-        <v>0.7704865019474312</v>
+        <v>0.8048138146382087</v>
       </c>
       <c r="D14">
-        <v>0.1951762037232925</v>
+        <v>0.1996921046386575</v>
       </c>
       <c r="E14">
-        <v>0.09544905719170771</v>
+        <v>0.0943007783270815</v>
       </c>
       <c r="F14">
-        <v>0.564455160363984</v>
+        <v>0.5333514262385251</v>
       </c>
       <c r="G14">
-        <v>0.3117964956969388</v>
+        <v>0.34498605832583</v>
       </c>
       <c r="H14">
-        <v>0.1713940090102284</v>
+        <v>0.1703505825521603</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2302089862855894</v>
+        <v>0.1980182353788607</v>
       </c>
       <c r="K14">
-        <v>0.1070343889169099</v>
+        <v>0.09901960453049874</v>
       </c>
       <c r="L14">
-        <v>0.0780211733002254</v>
+        <v>0.07509103093320046</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02351396753990009</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0752006807023573</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.085909761741235</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.094052941607004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.156181200818054</v>
+      </c>
+      <c r="S14">
+        <v>1.00814093483163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.264879166973003</v>
+        <v>3.164668005227213</v>
       </c>
       <c r="C15">
-        <v>0.7566633192154768</v>
+        <v>0.7908628443813654</v>
       </c>
       <c r="D15">
-        <v>0.1866705087781213</v>
+        <v>0.1906095272673412</v>
       </c>
       <c r="E15">
-        <v>0.08895681605788397</v>
+        <v>0.08774114206892492</v>
       </c>
       <c r="F15">
-        <v>0.5485202788885246</v>
+        <v>0.5202174114444347</v>
       </c>
       <c r="G15">
-        <v>0.3032553892195011</v>
+        <v>0.3299215256911907</v>
       </c>
       <c r="H15">
-        <v>0.1835315334704859</v>
+        <v>0.1825366221200255</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.226507337116459</v>
+        <v>0.2018880079084155</v>
       </c>
       <c r="K15">
-        <v>0.105712311385961</v>
+        <v>0.09851295515017355</v>
       </c>
       <c r="L15">
-        <v>0.07314235309977768</v>
+        <v>0.07522867448644543</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02265045077141892</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07050070825687271</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.08854660157337</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.068159386450048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.155583303275634</v>
+      </c>
+      <c r="S15">
+        <v>0.9898227795386134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.06427123011207</v>
+        <v>2.985897905363117</v>
       </c>
       <c r="C16">
-        <v>0.7118252594715386</v>
+        <v>0.7488538641468665</v>
       </c>
       <c r="D16">
-        <v>0.179641454673245</v>
+        <v>0.1818446846363742</v>
       </c>
       <c r="E16">
-        <v>0.08733861811967003</v>
+        <v>0.0860860296186452</v>
       </c>
       <c r="F16">
-        <v>0.5317496493278924</v>
+        <v>0.5130728206321109</v>
       </c>
       <c r="G16">
-        <v>0.2911786384235882</v>
+        <v>0.2888388216960038</v>
       </c>
       <c r="H16">
-        <v>0.1690574060562824</v>
+        <v>0.1682755747587379</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2239773444573103</v>
+        <v>0.2330958370232352</v>
       </c>
       <c r="K16">
-        <v>0.1085307178695292</v>
+        <v>0.103497389348858</v>
       </c>
       <c r="L16">
-        <v>0.07258255805268732</v>
+        <v>0.07866150228968305</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02137960797413818</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07034723317215175</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.059432658100391</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.0370687058481</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.112084606699796</v>
+      </c>
+      <c r="S16">
+        <v>0.9858762662744738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.967352159786742</v>
+        <v>2.897165637926207</v>
       </c>
       <c r="C17">
-        <v>0.6970805632752217</v>
+        <v>0.7363806121594791</v>
       </c>
       <c r="D17">
-        <v>0.1911325055020825</v>
+        <v>0.1928878750956073</v>
       </c>
       <c r="E17">
-        <v>0.1003344622441844</v>
+        <v>0.09915306287407688</v>
       </c>
       <c r="F17">
-        <v>0.5496014222577443</v>
+        <v>0.5339998855940351</v>
       </c>
       <c r="G17">
-        <v>0.2977003696855149</v>
+        <v>0.2829349616115451</v>
       </c>
       <c r="H17">
-        <v>0.1304236514443744</v>
+        <v>0.1297379684808533</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2294984735414687</v>
+        <v>0.2538500030465869</v>
       </c>
       <c r="K17">
-        <v>0.1142763738846178</v>
+        <v>0.1095778147126865</v>
       </c>
       <c r="L17">
-        <v>0.0838456287840792</v>
+        <v>0.08197202140910065</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02188844021598513</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.08166814117066323</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.02554136139922</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.062343902798204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.072067684905221</v>
+      </c>
+      <c r="S17">
+        <v>1.020265129540263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.947855987080459</v>
+        <v>2.877905303175226</v>
       </c>
       <c r="C18">
-        <v>0.7065152912078076</v>
+        <v>0.7495696713325515</v>
       </c>
       <c r="D18">
-        <v>0.221762155531124</v>
+        <v>0.2237747726710495</v>
       </c>
       <c r="E18">
-        <v>0.1326487601294275</v>
+        <v>0.1315917429458899</v>
       </c>
       <c r="F18">
-        <v>0.6004962750734606</v>
+        <v>0.5843594154555447</v>
       </c>
       <c r="G18">
-        <v>0.3212690114096972</v>
+        <v>0.2998850594599389</v>
       </c>
       <c r="H18">
-        <v>0.07756786315624709</v>
+        <v>0.07689920182238552</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2426351538211833</v>
+        <v>0.2731575113918225</v>
       </c>
       <c r="K18">
-        <v>0.1233362367275479</v>
+        <v>0.1177913469759648</v>
       </c>
       <c r="L18">
-        <v>0.1165786233145312</v>
+        <v>0.08574694752206646</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.02405047579318698</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.114200395348746</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9845502947409841</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.139764522202285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.029408998715368</v>
+      </c>
+      <c r="S18">
+        <v>1.096991155202716</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.991668407831128</v>
+        <v>2.916634160502326</v>
       </c>
       <c r="C19">
-        <v>0.7349392619068453</v>
+        <v>0.7834245996932623</v>
       </c>
       <c r="D19">
-        <v>0.2686764528015289</v>
+        <v>0.2714306647777533</v>
       </c>
       <c r="E19">
-        <v>0.1862785015336499</v>
+        <v>0.1853848733325911</v>
       </c>
       <c r="F19">
-        <v>0.6768132426896329</v>
+        <v>0.657726814336371</v>
       </c>
       <c r="G19">
-        <v>0.357747675275732</v>
+        <v>0.3324175370278937</v>
       </c>
       <c r="H19">
-        <v>0.03323666547044013</v>
+        <v>0.0325106056498754</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2612623274374499</v>
+        <v>0.2926986577085415</v>
       </c>
       <c r="K19">
-        <v>0.1348061448995388</v>
+        <v>0.1275709865858676</v>
       </c>
       <c r="L19">
-        <v>0.1794096429732193</v>
+        <v>0.08973829236734865</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02757119703624511</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.176599580134436</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9420307382449948</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.256106522333681</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.9879574568521718</v>
+      </c>
+      <c r="S19">
+        <v>1.206226149693322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.212675219994537</v>
+        <v>3.118050582549984</v>
       </c>
       <c r="C20">
-        <v>0.8161883745865168</v>
+        <v>0.8749933250918502</v>
       </c>
       <c r="D20">
-        <v>0.3597868236345789</v>
+        <v>0.3648423825160449</v>
       </c>
       <c r="E20">
-        <v>0.2971110721045491</v>
+        <v>0.2965764635312027</v>
       </c>
       <c r="F20">
-        <v>0.8223823607544176</v>
+        <v>0.7930694707210648</v>
       </c>
       <c r="G20">
-        <v>0.4295187136392258</v>
+        <v>0.4083692648773933</v>
       </c>
       <c r="H20">
-        <v>0.01070610922058091</v>
+        <v>0.009698199322522694</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2947786477443373</v>
+        <v>0.3110391417581013</v>
       </c>
       <c r="K20">
-        <v>0.1526162226157943</v>
+        <v>0.1411233431533425</v>
       </c>
       <c r="L20">
-        <v>0.3225241415502751</v>
+        <v>0.09350820041795238</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.03523092638394765</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3184887080040113</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8952138694881313</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.478595788035449</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.949041004481245</v>
+      </c>
+      <c r="S20">
+        <v>1.402743891094758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.620525757269718</v>
+        <v>3.477604673265432</v>
       </c>
       <c r="C21">
-        <v>0.9197514371608122</v>
+        <v>0.9741401085856296</v>
       </c>
       <c r="D21">
-        <v>0.4045632406985504</v>
+        <v>0.4156065606150605</v>
       </c>
       <c r="E21">
-        <v>0.3375661506071452</v>
+        <v>0.3379679758208809</v>
       </c>
       <c r="F21">
-        <v>0.9043113058620804</v>
+        <v>0.8476393967959837</v>
       </c>
       <c r="G21">
-        <v>0.4763107563779272</v>
+        <v>0.5267309445247719</v>
       </c>
       <c r="H21">
-        <v>0.01481230603087719</v>
+        <v>0.01327390035534476</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3115632563185358</v>
+        <v>0.2390876878331483</v>
       </c>
       <c r="K21">
-        <v>0.1545996937441139</v>
+        <v>0.1357236023827824</v>
       </c>
       <c r="L21">
-        <v>0.3691166562064296</v>
+        <v>0.08694951743460244</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.04073449382990191</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3630362253108359</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9210761898188622</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.613289514558147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.001425748817269</v>
+      </c>
+      <c r="S21">
+        <v>1.464774872932907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.882242906051715</v>
+        <v>3.705659404111486</v>
       </c>
       <c r="C22">
-        <v>0.9848887666146595</v>
+        <v>1.034607370588219</v>
       </c>
       <c r="D22">
-        <v>0.4297667128752778</v>
+        <v>0.4451239670141263</v>
       </c>
       <c r="E22">
-        <v>0.3584856137905348</v>
+        <v>0.3595955638305099</v>
       </c>
       <c r="F22">
-        <v>0.9525490878602625</v>
+        <v>0.876540824155029</v>
       </c>
       <c r="G22">
-        <v>0.5046975742901623</v>
+        <v>0.6113385605842439</v>
       </c>
       <c r="H22">
-        <v>0.01768499870981621</v>
+        <v>0.01576513127370205</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3215209415573952</v>
+        <v>0.195938681263911</v>
       </c>
       <c r="K22">
-        <v>0.155500517554124</v>
+        <v>0.131537439109124</v>
       </c>
       <c r="L22">
-        <v>0.3919757995365387</v>
+        <v>0.08264505124021859</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.04427379654292096</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3845208422265642</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.9413542577103726</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.694538621798131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.040487575441261</v>
+      </c>
+      <c r="S22">
+        <v>1.494766162137807</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.742540561697695</v>
+        <v>3.587120888337211</v>
       </c>
       <c r="C23">
-        <v>0.9501226284507993</v>
+        <v>1.004423412453178</v>
       </c>
       <c r="D23">
-        <v>0.4163073145539187</v>
+        <v>0.4287824823960591</v>
       </c>
       <c r="E23">
-        <v>0.3473143854715843</v>
+        <v>0.347920679043952</v>
       </c>
       <c r="F23">
-        <v>0.926708774422309</v>
+        <v>0.8633996781974105</v>
       </c>
       <c r="G23">
-        <v>0.4894701631819061</v>
+        <v>0.5567064228999357</v>
       </c>
       <c r="H23">
-        <v>0.01612572604946461</v>
+        <v>0.01442781608029087</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3161630972187766</v>
+        <v>0.2258005390660571</v>
       </c>
       <c r="K23">
-        <v>0.154970964523482</v>
+        <v>0.1342753544040995</v>
       </c>
       <c r="L23">
-        <v>0.3797686479242515</v>
+        <v>0.08508312621476755</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04259311862470128</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3731761052420524</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.9304589233704377</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.65092166056067</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1.017738821348971</v>
+      </c>
+      <c r="S23">
+        <v>1.484788298066292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.213772916821426</v>
+        <v>3.118918343363305</v>
       </c>
       <c r="C24">
-        <v>0.8184584536987245</v>
+        <v>0.877869916366393</v>
       </c>
       <c r="D24">
-        <v>0.3654913447601587</v>
+        <v>0.370608582390588</v>
       </c>
       <c r="E24">
-        <v>0.3051260970497012</v>
+        <v>0.3046083148811292</v>
       </c>
       <c r="F24">
-        <v>0.8308449730412377</v>
+        <v>0.80132806082797</v>
       </c>
       <c r="G24">
-        <v>0.4334170007567906</v>
+        <v>0.4114319103103412</v>
       </c>
       <c r="H24">
-        <v>0.01076995696442651</v>
+        <v>0.00975314497364871</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.29678967693944</v>
+        <v>0.3136931256668873</v>
       </c>
       <c r="K24">
-        <v>0.1540020854152893</v>
+        <v>0.1423436721453761</v>
       </c>
       <c r="L24">
-        <v>0.3336681736279559</v>
+        <v>0.09403715935072654</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.03562011004169641</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3295821432240444</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8907425261708681</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.491069238872626</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.944433954327053</v>
+      </c>
+      <c r="S24">
+        <v>1.41479195814901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.64362001876782</v>
+        <v>2.578278799438635</v>
       </c>
       <c r="C25">
-        <v>0.6763483404413932</v>
+        <v>0.7189431818103458</v>
       </c>
       <c r="D25">
-        <v>0.3109416656189694</v>
+        <v>0.3143125235122568</v>
       </c>
       <c r="E25">
-        <v>0.2597959351549051</v>
+        <v>0.2593592983890787</v>
       </c>
       <c r="F25">
-        <v>0.7312153662929006</v>
+        <v>0.7117051886322301</v>
       </c>
       <c r="G25">
-        <v>0.375987932653004</v>
+        <v>0.3513910433424456</v>
       </c>
       <c r="H25">
-        <v>0.006027757589685601</v>
+        <v>0.005463096873458972</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2776638726064959</v>
+        <v>0.306430816694629</v>
       </c>
       <c r="K25">
-        <v>0.1549605089689869</v>
+        <v>0.1465847354159919</v>
       </c>
       <c r="L25">
-        <v>0.2841192333064981</v>
+        <v>0.1026122457100929</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.02761002604916918</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.281253214822712</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8509306486027839</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.328752055336736</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8879215763106032</v>
+      </c>
+      <c r="S25">
+        <v>1.278887434037586</v>
       </c>
     </row>
   </sheetData>
